--- a/public/samp/ExampleForm.xlsx
+++ b/public/samp/ExampleForm.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QLCDV\public\samp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72332CE6-C666-4721-AD9F-6C6CB64F1597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD14017-D399-4982-BE98-E53363D59C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Đơn vị</t>
   </si>
@@ -321,64 +321,55 @@
     </r>
   </si>
   <si>
-    <t>Nguyễn Thị A</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>111 ABC phường XYZ</t>
-  </si>
-  <si>
     <t>0123456789</t>
   </si>
   <si>
-    <t>nta0101@gmail.com</t>
-  </si>
-  <si>
-    <t>Kinh</t>
-  </si>
-  <si>
-    <t>11/12</t>
-  </si>
-  <si>
-    <t>Phật</t>
-  </si>
-  <si>
-    <t>nguyenthia0101</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>987654321</t>
-  </si>
-  <si>
-    <t>Vĩnh Long</t>
-  </si>
-  <si>
-    <t>222 KKK phường HIHI</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>nvb0101@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoa</t>
-  </si>
-  <si>
-    <t>Đại học</t>
-  </si>
-  <si>
-    <t>Thiên chúa</t>
-  </si>
-  <si>
-    <t>nguyenvanb0101</t>
+    <t>0123123123</t>
+  </si>
+  <si>
+    <t>Anh Tiến</t>
+  </si>
+  <si>
+    <t>Thanh Phúc</t>
+  </si>
+  <si>
+    <t>Sóc trăng</t>
+  </si>
+  <si>
+    <t>Cần thơ</t>
+  </si>
+  <si>
+    <t>3/2 thành phố cần thơ</t>
+  </si>
+  <si>
+    <t>30/4 thành phố cần thơ</t>
+  </si>
+  <si>
+    <t>tien@tien</t>
+  </si>
+  <si>
+    <t>phuc@phuc</t>
+  </si>
+  <si>
+    <t>kinh</t>
+  </si>
+  <si>
+    <t>đại học</t>
+  </si>
+  <si>
+    <t>12/12</t>
+  </si>
+  <si>
+    <t>phật</t>
+  </si>
+  <si>
+    <t>thiên chúa</t>
+  </si>
+  <si>
+    <t>anhtien121198</t>
+  </si>
+  <si>
+    <t>thanhphuc123</t>
   </si>
 </sst>
 </file>
@@ -473,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -496,6 +487,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -780,7 +774,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +791,7 @@
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="10" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
     <col min="15" max="15" width="22.140625" customWidth="1"/>
     <col min="16" max="16" width="24.140625" customWidth="1"/>
@@ -861,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -917,7 +911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1047,108 +1041,108 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9">
         <v>35796</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>123456789</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O8" s="9">
-        <v>41255</v>
+        <v>40544</v>
       </c>
       <c r="P8" s="9">
-        <v>41345</v>
+        <v>40544</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R8">
-        <v>123456789</v>
+        <v>123123123</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9">
-        <v>35796</v>
+        <v>36111</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9">
+        <v>123456789</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="N9" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="O9" s="9">
+        <v>36476</v>
+      </c>
+      <c r="P9" s="9">
+        <v>36476</v>
+      </c>
+      <c r="Q9" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="9">
-        <v>37591</v>
-      </c>
-      <c r="P9" s="9">
-        <v>37681</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>66</v>
-      </c>
       <c r="R9">
-        <v>987654321</v>
+        <v>123123123</v>
       </c>
     </row>
   </sheetData>
@@ -1167,8 +1161,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1" xr:uid="{4C8D0017-A94D-4E22-95D8-1DB610124CE1}"/>
-    <hyperlink ref="K9" r:id="rId2" display="nvB0101@gmail.com" xr:uid="{ECAD255B-9A6B-4F6D-B09C-A8C1BA121308}"/>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{7E521070-816C-4A71-937D-951F2279F84F}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{D2139E96-8606-49BD-9156-34F2B7812C96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
